--- a/food_table.xlsx
+++ b/food_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CCB975E-3CBF-4BEB-A323-8B76DDE3D48E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7F2323-82F6-4A47-88D5-B2AD47C98AE2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CF0E9EA-6BC3-46CE-9527-81C8400868CF}"/>
   </bookViews>
@@ -36,39 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>herzhaft</t>
-  </si>
-  <si>
-    <t>dauer</t>
-  </si>
-  <si>
-    <t>liefern</t>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>takeaway</t>
   </si>
   <si>
     <t>Tortellini mit Käse Sahne Soße</t>
   </si>
   <si>
-    <t>Herzhaft</t>
-  </si>
-  <si>
-    <t>Lieber nicht</t>
-  </si>
-  <si>
     <t>Nutella Brot</t>
   </si>
   <si>
-    <t>Süß</t>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>Pizza bestellen</t>
-  </si>
-  <si>
-    <t>Okay</t>
   </si>
   <si>
     <t>Vegetarisches Sushi</t>
@@ -465,7 +459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -494,195 +488,195 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/food_table.xlsx
+++ b/food_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7F2323-82F6-4A47-88D5-B2AD47C98AE2}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49FC0408-C73C-4611-A5A2-F2258BB23EFA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CF0E9EA-6BC3-46CE-9527-81C8400868CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>food</t>
   </si>
@@ -53,13 +53,22 @@
     <t>Tortellini mit Käse Sahne Soße</t>
   </si>
   <si>
+    <t>herzhaft</t>
+  </si>
+  <si>
+    <t>bestellen</t>
+  </si>
+  <si>
+    <t>kochen</t>
+  </si>
+  <si>
     <t>Nutella Brot</t>
   </si>
   <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>süß</t>
+  </si>
+  <si>
+    <t>wenig</t>
   </si>
   <si>
     <t>Pizza bestellen</t>
@@ -80,6 +89,9 @@
     <t>Sushi selber machen</t>
   </si>
   <si>
+    <t>hoch</t>
+  </si>
+  <si>
     <t>Pizza selber machen</t>
   </si>
   <si>
@@ -92,10 +104,16 @@
     <t>Cookies backen</t>
   </si>
   <si>
+    <t>mittel</t>
+  </si>
+  <si>
     <t>Hefezopf mit Nutella</t>
   </si>
   <si>
     <t>Obazda Brot</t>
+  </si>
+  <si>
+    <t>Tacos</t>
   </si>
 </sst>
 </file>
@@ -456,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E629A7-DAAF-4C85-A4F9-5C034A3F9D12}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -469,7 +487,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,24 +506,24 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -513,41 +531,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -555,13 +573,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -569,13 +587,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -583,13 +601,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -597,13 +615,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -611,13 +629,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -625,13 +643,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -639,13 +657,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -653,13 +671,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -667,15 +685,29 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>

--- a/food_table.xlsx
+++ b/food_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49FC0408-C73C-4611-A5A2-F2258BB23EFA}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{EF6F592D-DB6B-41D0-A875-E29ADBAA4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8FEC408-4ABE-4BBB-82B0-0995228BB588}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CF0E9EA-6BC3-46CE-9527-81C8400868CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>food</t>
   </si>
@@ -114,6 +114,87 @@
   </si>
   <si>
     <t>Tacos</t>
+  </si>
+  <si>
+    <t>Mac and Cheese</t>
+  </si>
+  <si>
+    <t>Wraps</t>
+  </si>
+  <si>
+    <t>Instant Nudeln</t>
+  </si>
+  <si>
+    <t>Pilz-Risotto</t>
+  </si>
+  <si>
+    <t>Pfannekuchen</t>
+  </si>
+  <si>
+    <t>Milchreis</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>Sommerrollen</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Miracoli</t>
+  </si>
+  <si>
+    <t>Muscheln in Weißweinsoße</t>
+  </si>
+  <si>
+    <t>Lasagne</t>
+  </si>
+  <si>
+    <t>Soja-Bolognese</t>
+  </si>
+  <si>
+    <t>Kartoffeln mit Quark</t>
+  </si>
+  <si>
+    <t>Griesbrei mit Apfelmus</t>
+  </si>
+  <si>
+    <t>Döner</t>
+  </si>
+  <si>
+    <t>Paneer Butter Masala</t>
+  </si>
+  <si>
+    <t>Pho Suppe</t>
+  </si>
+  <si>
+    <t>Asia-Nudeln</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Käsespätzle</t>
+  </si>
+  <si>
+    <t>Nudeln mit Pesto</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
+    <t>Maultauschen</t>
+  </si>
+  <si>
+    <t>Sandwiches</t>
+  </si>
+  <si>
+    <t>Ikea Köttbullar</t>
+  </si>
+  <si>
+    <t>Beck Fladen</t>
   </si>
 </sst>
 </file>
@@ -474,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E629A7-DAAF-4C85-A4F9-5C034A3F9D12}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -711,6 +792,384 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
